--- a/Contacts.xlsx
+++ b/Contacts.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell 7390\Desktop\docs\Power Apps\PCF\PCFexcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CFFECE2-1540-48BB-A6E4-5FFF22A6046F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6406E929-8FBC-4748-81E2-06CDF48D5EB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{3C0EC4D3-A1A5-4DF5-BB39-A99744656A27}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{3C0EC4D3-A1A5-4DF5-BB39-A99744656A27}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Emma</t>
   </si>
@@ -70,13 +70,40 @@
   </si>
   <si>
     <t>larryGonzales@test.com</t>
+  </si>
+  <si>
+    <t>Emma1</t>
+  </si>
+  <si>
+    <t>Angie1</t>
+  </si>
+  <si>
+    <t>Larry1</t>
+  </si>
+  <si>
+    <t>Brown1</t>
+  </si>
+  <si>
+    <t>Blackstock1</t>
+  </si>
+  <si>
+    <t>Gonzales1</t>
+  </si>
+  <si>
+    <t>emmabrown@1test.com</t>
+  </si>
+  <si>
+    <t>angieBlackstock@1test.com</t>
+  </si>
+  <si>
+    <t>larryGonzales@1test.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -101,6 +128,12 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -139,11 +172,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -459,20 +493,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7599EA1-3484-450A-902B-C8F89A63075C}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.7265625" customWidth="1"/>
-    <col min="2" max="2" width="21.453125" customWidth="1"/>
+    <col min="1" max="1" width="17.77734375" customWidth="1"/>
+    <col min="2" max="2" width="21.44140625" customWidth="1"/>
     <col min="3" max="3" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -483,7 +517,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -494,7 +528,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -505,7 +539,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -516,12 +550,49 @@
         <v>11</v>
       </c>
     </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" xr:uid="{DE06FA79-957D-4F21-8C4A-18A55E10345D}"/>
-    <hyperlink ref="C4" r:id="rId2" xr:uid="{B85BA4BF-033B-4C44-945E-B35CFACCF567}"/>
+    <hyperlink ref="C5" r:id="rId1" xr:uid="{EDDBF726-27AB-4568-BC3A-B172E71331F3}"/>
+    <hyperlink ref="C7" r:id="rId2" xr:uid="{2A186811-E5BA-4F66-8AD0-DD91FCFEE223}"/>
+    <hyperlink ref="C6" r:id="rId3" xr:uid="{DC91E536-9A4D-4680-85BA-5F3508CBA925}"/>
+    <hyperlink ref="C4" r:id="rId4" xr:uid="{7A765A59-473C-4F34-AF69-975D2C98985C}"/>
+    <hyperlink ref="C3" r:id="rId5" xr:uid="{7C679DD0-8B04-4434-A060-6D8BF0C38519}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
--- a/Contacts.xlsx
+++ b/Contacts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell 7390\Desktop\docs\Power Apps\PCF\PCFexcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6406E929-8FBC-4748-81E2-06CDF48D5EB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A21D5C3B-5391-4D09-B490-8716CCFA810B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{3C0EC4D3-A1A5-4DF5-BB39-A99744656A27}"/>
+    <workbookView xWindow="-108" yWindow="12852" windowWidth="23256" windowHeight="12576" xr2:uid="{3C0EC4D3-A1A5-4DF5-BB39-A99744656A27}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
   <si>
     <t>Emma</t>
   </si>
@@ -81,9 +81,6 @@
     <t>Larry1</t>
   </si>
   <si>
-    <t>Brown1</t>
-  </si>
-  <si>
     <t>Blackstock1</t>
   </si>
   <si>
@@ -97,13 +94,19 @@
   </si>
   <si>
     <t>larryGonzales@1test.com</t>
+  </si>
+  <si>
+    <t>msgdpr_gdprparentid</t>
+  </si>
+  <si>
+    <t>contacts(05b62eda-22e3-eb11-bacb-000d3aac478f)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -136,6 +139,21 @@
       <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -172,12 +190,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -493,20 +513,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7599EA1-3484-450A-902B-C8F89A63075C}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.77734375" customWidth="1"/>
-    <col min="2" max="2" width="21.44140625" customWidth="1"/>
-    <col min="3" max="3" width="22" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" customWidth="1"/>
+    <col min="3" max="3" width="31.28515625" customWidth="1"/>
+    <col min="4" max="4" width="64.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -516,8 +537,11 @@
       <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="D1" s="5" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -527,8 +551,11 @@
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -538,8 +565,11 @@
       <c r="C3" s="3" t="s">
         <v>8</v>
       </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -549,38 +579,48 @@
       <c r="C4" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>15</v>
-      </c>
+      <c r="B5" s="6"/>
       <c r="C5" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/Contacts.xlsx
+++ b/Contacts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell 7390\Desktop\docs\Power Apps\PCF\PCFexcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A21D5C3B-5391-4D09-B490-8716CCFA810B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED5314A0-7F60-4D0C-9FC5-470B2C1BCC94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="12852" windowWidth="23256" windowHeight="12576" xr2:uid="{3C0EC4D3-A1A5-4DF5-BB39-A99744656A27}"/>
+    <workbookView xWindow="930" yWindow="915" windowWidth="25080" windowHeight="12615" xr2:uid="{3C0EC4D3-A1A5-4DF5-BB39-A99744656A27}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -99,7 +99,7 @@
     <t>msgdpr_gdprparentid</t>
   </si>
   <si>
-    <t>contacts(05b62eda-22e3-eb11-bacb-000d3aac478f)</t>
+    <t>contacts(4f59ed0d-32e9-eb11-bacb-000d3aaefb39)</t>
   </si>
 </sst>
 </file>
@@ -516,7 +516,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Contacts.xlsx
+++ b/Contacts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell 7390\Desktop\docs\Power Apps\PCF\PCFexcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED5314A0-7F60-4D0C-9FC5-470B2C1BCC94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FBBCD25-4803-4FD4-8F00-5A550209198B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="930" yWindow="915" windowWidth="25080" windowHeight="12615" xr2:uid="{3C0EC4D3-A1A5-4DF5-BB39-A99744656A27}"/>
   </bookViews>
@@ -106,7 +106,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -139,21 +139,6 @@
       <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -190,14 +175,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -516,7 +498,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -527,7 +509,7 @@
     <col min="4" max="4" width="64.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -537,7 +519,7 @@
       <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="1" t="s">
         <v>20</v>
       </c>
     </row>
@@ -551,7 +533,7 @@
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -570,25 +552,24 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="4" t="s">
+      <c r="C5" t="s">
         <v>17</v>
       </c>
       <c r="D5" t="s">
@@ -596,16 +577,16 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="2" t="s">
         <v>21</v>
       </c>
     </row>
